--- a/Project1/Project1/Stage04.xlsx
+++ b/Project1/Project1/Stage04.xlsx
@@ -504,8 +504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3048,7 +3048,7 @@
         <v>0</v>
       </c>
       <c r="AN9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO9" s="1">
         <v>1</v>
@@ -3350,7 +3350,7 @@
         <v>0</v>
       </c>
       <c r="AN10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO10" s="1">
         <v>1</v>

--- a/Project1/Project1/Stage04.xlsx
+++ b/Project1/Project1/Stage04.xlsx
@@ -504,8 +504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
+      <selection activeCell="AS7" sqref="AS7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2160,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AU6" s="1">
         <v>0</v>
@@ -2459,7 +2459,7 @@
         <v>0</v>
       </c>
       <c r="AS7" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AT7" s="1">
         <v>1</v>
